--- a/기능명세서.xlsx
+++ b/기능명세서.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dw\Documents\MyProject\TheBoxer\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="마이페이지" sheetId="1" r:id="rId1"/>
     <sheet name="추천 장소 및 이벤트" sheetId="2" r:id="rId2"/>
     <sheet name="관리자" sheetId="3" r:id="rId3"/>
+    <sheet name="비밀번호 찾기" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">마이페이지!$A$1:$I$35</definedName>
@@ -29,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="186">
   <si>
     <t>화면</t>
   </si>
@@ -634,14 +630,107 @@
   </si>
   <si>
     <t>삭제 버튼 클릭 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REST API URL/생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디, 이메일 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기 탭에서 이름 과 이메일 주소 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력칸 ui 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증번호 발송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 확인 버튼을 누를 경우 사용자의 이메일로 인증번호를 발송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /api/user/find-num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증번호 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>받은 인증번호를 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증번호 검증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 입력한 인증번호를 검증한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /api/user/find-num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 비밀번호 입력</t>
+  </si>
+  <si>
+    <t>유저가 사용할 새 비밀번호를 입력한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /api/user/find-pw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 비밀번호 검증</t>
+  </si>
+  <si>
+    <t>유저가 입력한 새 비밀번호를 검증한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인창 이동</t>
+  </si>
+  <si>
+    <t>확인 버튼 클릭 시 로그인 창으로 이동한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,8 +763,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -700,8 +803,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -761,66 +882,130 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,7 +1067,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -917,7 +1102,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1094,7 +1279,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1104,676 +1289,676 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="16" style="6" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="6" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="69.875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="36.25" style="6" customWidth="1"/>
-    <col min="7" max="9" width="16" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="16" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="69.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="36.25" style="5" customWidth="1"/>
+    <col min="7" max="9" width="16" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" ht="30" customHeight="1">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="11" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="11" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1">
+      <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1">
+      <c r="A6" s="11"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1">
+      <c r="A7" s="11"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1">
+      <c r="A8" s="11"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1">
+      <c r="A9" s="11"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1">
+      <c r="A10" s="11"/>
       <c r="B10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" customHeight="1">
+      <c r="A11" s="11"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1">
+      <c r="A12" s="11"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1">
+      <c r="A13" s="11"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1">
+      <c r="A14" s="11"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1">
+      <c r="A15" s="11"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1">
+      <c r="A16" s="11"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="30" customHeight="1">
+      <c r="A17" s="11"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="30" customHeight="1">
+      <c r="A18" s="11"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="11" t="s">
+      <c r="F18" s="7"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="30" customHeight="1">
+      <c r="A19" s="11"/>
+      <c r="B19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="11" t="s">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="30" customHeight="1">
+      <c r="A20" s="11"/>
+      <c r="B20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="11" t="s">
+      <c r="F20" s="7"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="30" customHeight="1">
+      <c r="A21" s="11"/>
+      <c r="B21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="11" t="s">
+      <c r="F21" s="7"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="30" customHeight="1">
+      <c r="A22" s="11"/>
+      <c r="B22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="11" t="s">
+      <c r="F22" s="7"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" customHeight="1">
+      <c r="A23" s="11"/>
+      <c r="B23" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="11" t="s">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="30" customHeight="1">
+      <c r="A24" s="11"/>
+      <c r="B24" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="11" t="s">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="30" customHeight="1">
+      <c r="A25" s="11"/>
+      <c r="B25" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="30" customHeight="1">
+      <c r="A26" s="11"/>
       <c r="B26" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="30" customHeight="1">
+      <c r="A27" s="11"/>
       <c r="B27" s="13"/>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="30" customHeight="1">
+      <c r="A28" s="11"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="30" customHeight="1">
+      <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="30" customHeight="1">
+      <c r="A30" s="11"/>
       <c r="B30" s="13"/>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="30" customHeight="1">
+      <c r="A31" s="11"/>
       <c r="B31" s="14"/>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="30" customHeight="1">
+      <c r="A32" s="11"/>
       <c r="B32" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="30" customHeight="1">
+      <c r="A33" s="11"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="30" customHeight="1">
+      <c r="A34" s="11"/>
       <c r="B34" s="14"/>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="4" t="s">
+      <c r="F34" s="7"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" ht="30" customHeight="1">
+      <c r="A35" s="11"/>
+      <c r="B35" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3" t="s">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I35" s="3"/>
+      <c r="I35" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I35"/>
@@ -1798,7 +1983,7 @@
       <selection activeCell="B2" sqref="B2:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
@@ -1809,232 +1994,232 @@
     <col min="7" max="10" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="15" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="15" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="17"/>
+      <c r="B5" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="15" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="17"/>
+      <c r="B6" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="11" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A7" s="17"/>
+      <c r="B7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="15" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A8" s="17"/>
+      <c r="B8" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="11" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="11" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="11" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2054,7 +2239,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="21.625" customWidth="1"/>
     <col min="2" max="2" width="25.25" customWidth="1"/>
@@ -2066,163 +2251,163 @@
     <col min="9" max="9" width="7.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="11" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="11" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="11" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="11"/>
+      <c r="B5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="11" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="11"/>
+      <c r="B6" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="11" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A7" s="11"/>
+      <c r="B7" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2231,4 +2416,209 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
+    <col min="6" max="6" width="30.625" customWidth="1"/>
+    <col min="7" max="9" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="33">
+      <c r="A1" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="22"/>
+      <c r="B4" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="22"/>
+      <c r="B6" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="28"/>
+      <c r="B8" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A8"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/기능명세서.xlsx
+++ b/기능명세서.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="마이페이지" sheetId="1" r:id="rId1"/>
     <sheet name="추천 장소 및 이벤트" sheetId="2" r:id="rId2"/>
     <sheet name="관리자" sheetId="3" r:id="rId3"/>
     <sheet name="비밀번호 찾기" sheetId="4" r:id="rId4"/>
+    <sheet name="회원가입" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">마이페이지!$A$1:$I$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">회원가입!$A$1:$I$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="215">
   <si>
     <t>화면</t>
   </si>
@@ -723,6 +725,95 @@
   </si>
   <si>
     <t>확인 버튼 클릭 시 로그인 창으로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 화면</t>
+  </si>
+  <si>
+    <t>회원가입 폼</t>
+  </si>
+  <si>
+    <t>이메일 입력</t>
+  </si>
+  <si>
+    <t>이메일 입력란에 이메일을 입력하고 중복 체크 및 이메일 인증까지 완료한다.</t>
+  </si>
+  <si>
+    <t>POST /api/user/join</t>
+  </si>
+  <si>
+    <t>전화번호 입력</t>
+  </si>
+  <si>
+    <t>전화번호 입력란에 전화번호 입력 후 인증까지 완료한다.</t>
+  </si>
+  <si>
+    <t>입력칸 ui 생성</t>
+  </si>
+  <si>
+    <t>비밀번호 입력</t>
+  </si>
+  <si>
+    <t>비밀번호 입력 칸에 비밀번호를 입력한다.</t>
+  </si>
+  <si>
+    <t>비밀번호 확인 입력</t>
+  </si>
+  <si>
+    <t>비밀번호 확인란에 비밀번호를 재입력하여 일치 여부를 확인한다.</t>
+  </si>
+  <si>
+    <t>아이디 중복 확인</t>
+  </si>
+  <si>
+    <t>입력한 아이디에 대한 중복 여부를 확인하는 버튼 클릭 → 가능/불가능 알림 제공</t>
+  </si>
+  <si>
+    <t>필수 정보 입력 후 '회원가입' 버튼 클릭 시 API 호출 / 성공 시 완료 모달 및 로그인 화면 이동</t>
+  </si>
+  <si>
+    <t>REST API URL/생성</t>
+  </si>
+  <si>
+    <t>생년월일 입력</t>
+  </si>
+  <si>
+    <t>생년월일 입력란에 생년월일 입력</t>
+  </si>
+  <si>
+    <t>여성 이름 입력</t>
+  </si>
+  <si>
+    <t>여성 사용자 이름 입력란에 이름을 입력한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">입력 </t>
+  </si>
+  <si>
+    <t>D-Day 입력</t>
+  </si>
+  <si>
+    <t>D-Day 입력란에 입력</t>
+  </si>
+  <si>
+    <t>아이디 입력</t>
+  </si>
+  <si>
+    <t>아이디 입력칸에 입력</t>
+  </si>
+  <si>
+    <t>POST /api/user/check-id</t>
+  </si>
+  <si>
+    <t>회원가입 (시작하기) 완료</t>
+  </si>
+  <si>
+    <t>남성 사용자 이름 입력란에 이름을 입력한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성 이름 입력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +821,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,8 +868,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -821,8 +929,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -913,13 +1033,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -953,6 +1086,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -974,37 +1131,55 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1279,7 +1454,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1293,7 +1468,7 @@
       <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="5" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="5" bestFit="1" customWidth="1"/>
@@ -1305,7 +1480,7 @@
     <col min="10" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="30.75" customHeight="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1334,8 +1509,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1357,8 +1532,8 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1">
-      <c r="A3" s="11"/>
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
       <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
@@ -1378,8 +1553,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
       <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
@@ -1397,9 +1572,9 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1416,9 +1591,9 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="13"/>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
@@ -1433,9 +1608,9 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13"/>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
@@ -1450,9 +1625,9 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="13"/>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="7" t="s">
         <v>26</v>
       </c>
@@ -1467,9 +1642,9 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="14"/>
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="7" t="s">
         <v>26</v>
       </c>
@@ -1484,9 +1659,9 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1503,9 +1678,9 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="13"/>
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="7" t="s">
         <v>26</v>
       </c>
@@ -1520,9 +1695,9 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="13"/>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="7" t="s">
         <v>35</v>
       </c>
@@ -1537,9 +1712,9 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="13"/>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
@@ -1554,9 +1729,9 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="13"/>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="7" t="s">
         <v>26</v>
       </c>
@@ -1571,9 +1746,9 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="13"/>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="7" t="s">
         <v>26</v>
       </c>
@@ -1588,9 +1763,9 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="13"/>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="7" t="s">
         <v>26</v>
       </c>
@@ -1605,9 +1780,9 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="30" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="13"/>
+    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
@@ -1622,9 +1797,9 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="30" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="14"/>
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="7" t="s">
         <v>35</v>
       </c>
@@ -1639,8 +1814,8 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="30" customHeight="1">
-      <c r="A19" s="11"/>
+    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
       <c r="B19" s="7" t="s">
         <v>46</v>
       </c>
@@ -1660,8 +1835,8 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="30" customHeight="1">
-      <c r="A20" s="11"/>
+    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
       <c r="B20" s="7" t="s">
         <v>50</v>
       </c>
@@ -1679,8 +1854,8 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="30" customHeight="1">
-      <c r="A21" s="11"/>
+    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
       <c r="B21" s="7" t="s">
         <v>53</v>
       </c>
@@ -1698,8 +1873,8 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="30" customHeight="1">
-      <c r="A22" s="11"/>
+    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
       <c r="B22" s="7" t="s">
         <v>56</v>
       </c>
@@ -1717,8 +1892,8 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="30" customHeight="1">
-      <c r="A23" s="11"/>
+    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
       <c r="B23" s="7" t="s">
         <v>59</v>
       </c>
@@ -1738,8 +1913,8 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="30" customHeight="1">
-      <c r="A24" s="11"/>
+    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="19"/>
       <c r="B24" s="7" t="s">
         <v>62</v>
       </c>
@@ -1759,8 +1934,8 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="30" customHeight="1">
-      <c r="A25" s="11"/>
+    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
       <c r="B25" s="7" t="s">
         <v>65</v>
       </c>
@@ -1778,9 +1953,9 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12" t="s">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20" t="s">
         <v>68</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -1797,9 +1972,9 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="13"/>
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="7" t="s">
         <v>35</v>
       </c>
@@ -1814,9 +1989,9 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="14"/>
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="7" t="s">
         <v>20</v>
       </c>
@@ -1831,9 +2006,9 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12" t="s">
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20" t="s">
         <v>72</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -1850,9 +2025,9 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="13"/>
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="7" t="s">
         <v>26</v>
       </c>
@@ -1867,9 +2042,9 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="14"/>
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="7" t="s">
         <v>22</v>
       </c>
@@ -1884,9 +2059,9 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" ht="30" customHeight="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12" t="s">
+    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -1903,9 +2078,9 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="30" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="13"/>
+    <row r="33" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
@@ -1920,9 +2095,9 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" ht="30" customHeight="1">
-      <c r="A34" s="11"/>
-      <c r="B34" s="14"/>
+    <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="19"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="7" t="s">
         <v>16</v>
       </c>
@@ -1937,8 +2112,8 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" ht="30" customHeight="1">
-      <c r="A35" s="11"/>
+    <row r="35" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="19"/>
       <c r="B35" s="3" t="s">
         <v>83</v>
       </c>
@@ -1983,7 +2158,7 @@
       <selection activeCell="B2" sqref="B2:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
@@ -1994,7 +2169,7 @@
     <col min="7" max="10" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="30.75" customHeight="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2023,8 +2198,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>104</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2044,8 +2219,8 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="16"/>
+    <row r="3" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
       <c r="B3" s="8" t="s">
         <v>104</v>
       </c>
@@ -2063,8 +2238,8 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>111</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -2084,8 +2259,8 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="17"/>
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25"/>
       <c r="B5" s="8" t="s">
         <v>115</v>
       </c>
@@ -2103,8 +2278,8 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="17"/>
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
       <c r="B6" s="8" t="s">
         <v>117</v>
       </c>
@@ -2122,8 +2297,8 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="17"/>
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25"/>
       <c r="B7" s="7" t="s">
         <v>120</v>
       </c>
@@ -2141,8 +2316,8 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="17"/>
+    <row r="8" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
       <c r="B8" s="8" t="s">
         <v>126</v>
       </c>
@@ -2160,8 +2335,8 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1">
-      <c r="A9" s="17"/>
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
       <c r="B9" s="7" t="s">
         <v>145</v>
       </c>
@@ -2181,8 +2356,8 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1">
-      <c r="A10" s="17"/>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
       <c r="B10" s="7" t="s">
         <v>149</v>
       </c>
@@ -2200,8 +2375,8 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1">
-      <c r="A11" s="17"/>
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
       <c r="B11" s="7" t="s">
         <v>151</v>
       </c>
@@ -2236,10 +2411,10 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.625" customWidth="1"/>
     <col min="2" max="2" width="25.25" customWidth="1"/>
@@ -2251,7 +2426,7 @@
     <col min="9" max="9" width="7.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="30.75" customHeight="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2280,8 +2455,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>127</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2303,8 +2478,8 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="11"/>
+    <row r="3" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
       <c r="B3" s="7" t="s">
         <v>131</v>
       </c>
@@ -2324,8 +2499,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
       <c r="B4" s="7" t="s">
         <v>136</v>
       </c>
@@ -2343,8 +2518,8 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
       <c r="B5" s="7" t="s">
         <v>138</v>
       </c>
@@ -2362,8 +2537,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
       <c r="B6" s="7" t="s">
         <v>140</v>
       </c>
@@ -2381,8 +2556,8 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
       <c r="B7" s="7" t="s">
         <v>156</v>
       </c>
@@ -2402,7 +2577,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -2422,11 +2597,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="3" width="25.625" customWidth="1"/>
@@ -2436,183 +2611,183 @@
     <col min="7" max="9" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="27"/>
+      <c r="B3" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="22"/>
-      <c r="B4" s="20" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="27"/>
+      <c r="B4" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="22"/>
-      <c r="B6" s="20" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="27"/>
+      <c r="B6" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="27"/>
+      <c r="B7" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2621,4 +2796,275 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="5" max="5" width="79.625" customWidth="1"/>
+    <col min="6" max="6" width="24.25" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="41"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B2:B12"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/기능명세서.xlsx
+++ b/기능명세서.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56096b8bf7e51427/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_3C6123A066C1BB50748B1238860A979F6AB97881" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27C6AB16-B11E-49BB-B71F-F74E5BF04138}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="마이페이지" sheetId="1" r:id="rId1"/>
@@ -12,6 +18,11 @@
     <sheet name="관리자" sheetId="3" r:id="rId3"/>
     <sheet name="비밀번호 찾기" sheetId="4" r:id="rId4"/>
     <sheet name="회원가입" sheetId="5" r:id="rId5"/>
+    <sheet name="로그인" sheetId="6" r:id="rId6"/>
+    <sheet name="아이디 찾기" sheetId="7" r:id="rId7"/>
+    <sheet name="피드" sheetId="8" r:id="rId8"/>
+    <sheet name="피드 등록" sheetId="9" r:id="rId9"/>
+    <sheet name="이벤트" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">마이페이지!$A$1:$I$35</definedName>
@@ -27,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="329">
   <si>
     <t>화면</t>
   </si>
@@ -815,13 +826,490 @@
   <si>
     <t>남성 이름 입력</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">이벤트
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(보류)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 작성 후 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 시 팝업창 열림?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>back 버튼 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 후 이전 페이지 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>top버튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 시 제일 상단으로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공개여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공개여부 선택 가능 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 최대 30자의 선택 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">피드 등록 후 내 피드로 이동 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드 목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최신순</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 시 최신순으로 정렬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 피드 목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 순</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 시 댓글이 많은순으로 정렬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요 순</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 시 좋아요 순으로 정렬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드 검색란</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>펼쳐지면서(슬라이드) 검색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 후 팔로우 신청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드 즐겨찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐겨찾기 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 시, 마이페이지에
+즐겨찾기 임시 저장 및 색깔 노란색으로 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드 등록일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성한날짜 고정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드 작성 시 등록한 날짜로 고정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드 사진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 시, 다음 사진으로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 개수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사진 총 장수와 현재페이지 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드 답글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글 달린 숫자만 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드 좋아요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드 태그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AI가 조회 후 다음 장소 추천 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드 댓글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드 댓글 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 입력란에 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드 댓글 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드 대댓글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대댓글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대댓글 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드 대댓글 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대댓글 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드 대댓글 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대댓글 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드 대댓글 더 보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">대댓글 더 보기 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대댓글 더 보기로 펼치기(아래로)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드 대댓글 접기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대댓글 접기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대댓글 접기로 숨기기(위로)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드 등록하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옆으로 길어지면서 ‘게시글 작성하기’ 문구 나오고 
+클릭 시 피드 등록으로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">피드 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기</t>
+  </si>
+  <si>
+    <t>이메일로 찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일로 찾기 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기 페이지에서 이름을 입력한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기 페이지에서 이메일 주소 입력한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호로 찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호로 찾기 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기 페이지에서 전화번호를 입력한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증받기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름과 전화번호 일치 여부 확인 및 
+문자로  인증번호 발송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자로 받은 인증번호 작성 후 클릭 시,
+인증 완료로 변경 후 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /api/user/find-id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 복사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">복사하기 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>back 버튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>아이디 입력란에 값을 입력한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 입력란에 비밀번호를 입력한다.</t>
+  </si>
+  <si>
+    <t>로그인 버튼 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 및 비밀번호 입력 후 로그인 버튼 클릭 → 성공 시 메인 이동 / 실패 시 경고 및 입력란 리셋</t>
+  </si>
+  <si>
+    <t>POST /api/user/login</t>
+  </si>
+  <si>
+    <t>회원가입 버튼 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 버튼 클릭 후 회원가입 페이지로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 후 아이티 찾기 페이지 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 후 비밀번호 찾기 페이지 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요 표시 클릭시 1 증가 색 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요 취소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요 표시 클릭시 1 감소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /api/great/add</t>
+  </si>
+  <si>
+    <t>POST /api/great/remove</t>
+  </si>
+  <si>
+    <t>POST/api/feed/release</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -885,8 +1373,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -939,6 +1435,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1052,7 +1554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1110,6 +1612,30 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1140,47 +1666,56 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1454,33 +1989,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16" style="5" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="69.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="69.83203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="36.25" style="5" customWidth="1"/>
     <col min="7" max="9" width="16" style="5" customWidth="1"/>
     <col min="10" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1509,8 +2044,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1532,8 +2067,8 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="27"/>
       <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
@@ -1553,8 +2088,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="27"/>
       <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
@@ -1572,9 +2107,9 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20" t="s">
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1591,9 +2126,9 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="21"/>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="27"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
@@ -1608,9 +2143,9 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="21"/>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="27"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
@@ -1625,9 +2160,9 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="21"/>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="27"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="7" t="s">
         <v>26</v>
       </c>
@@ -1642,9 +2177,9 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="22"/>
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="27"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="7" t="s">
         <v>26</v>
       </c>
@@ -1659,9 +2194,9 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20" t="s">
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1678,9 +2213,9 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="21"/>
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="27"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="7" t="s">
         <v>26</v>
       </c>
@@ -1695,9 +2230,9 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="21"/>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="27"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="7" t="s">
         <v>35</v>
       </c>
@@ -1712,9 +2247,9 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="21"/>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="27"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
@@ -1729,9 +2264,9 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="21"/>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="27"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="7" t="s">
         <v>26</v>
       </c>
@@ -1746,9 +2281,9 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="21"/>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="27"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="7" t="s">
         <v>26</v>
       </c>
@@ -1763,9 +2298,9 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="21"/>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="27"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="7" t="s">
         <v>26</v>
       </c>
@@ -1780,9 +2315,9 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="21"/>
+    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="27"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
@@ -1797,9 +2332,9 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="22"/>
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="27"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="7" t="s">
         <v>35</v>
       </c>
@@ -1814,8 +2349,8 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
+    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="27"/>
       <c r="B19" s="7" t="s">
         <v>46</v>
       </c>
@@ -1835,8 +2370,8 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
+    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="27"/>
       <c r="B20" s="7" t="s">
         <v>50</v>
       </c>
@@ -1854,8 +2389,8 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
+    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="27"/>
       <c r="B21" s="7" t="s">
         <v>53</v>
       </c>
@@ -1873,8 +2408,8 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
+    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="27"/>
       <c r="B22" s="7" t="s">
         <v>56</v>
       </c>
@@ -1892,8 +2427,8 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
+    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="27"/>
       <c r="B23" s="7" t="s">
         <v>59</v>
       </c>
@@ -1913,8 +2448,8 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
+    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="27"/>
       <c r="B24" s="7" t="s">
         <v>62</v>
       </c>
@@ -1934,8 +2469,8 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
+    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="27"/>
       <c r="B25" s="7" t="s">
         <v>65</v>
       </c>
@@ -1953,9 +2488,9 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20" t="s">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="27"/>
+      <c r="B26" s="28" t="s">
         <v>68</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -1972,9 +2507,9 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="21"/>
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="27"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="7" t="s">
         <v>35</v>
       </c>
@@ -1989,9 +2524,9 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="22"/>
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="27"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="7" t="s">
         <v>20</v>
       </c>
@@ -2006,9 +2541,9 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20" t="s">
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="27"/>
+      <c r="B29" s="28" t="s">
         <v>72</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -2025,9 +2560,9 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="21"/>
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="27"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="7" t="s">
         <v>26</v>
       </c>
@@ -2042,9 +2577,9 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="22"/>
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="27"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="7" t="s">
         <v>22</v>
       </c>
@@ -2059,9 +2594,9 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20" t="s">
+    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="27"/>
+      <c r="B32" s="28" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -2078,9 +2613,9 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="21"/>
+    <row r="33" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="27"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
@@ -2095,9 +2630,9 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="22"/>
+    <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="27"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="7" t="s">
         <v>16</v>
       </c>
@@ -2112,8 +2647,8 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
+    <row r="35" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="27"/>
       <c r="B35" s="3" t="s">
         <v>83</v>
       </c>
@@ -2136,7 +2671,7 @@
       <c r="I35" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I35"/>
+  <autoFilter ref="A1:I35" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="6">
     <mergeCell ref="A2:A35"/>
     <mergeCell ref="B5:B9"/>
@@ -2150,26 +2685,198 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E75625-6B91-40EB-A1BD-D50E189693C8}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.58203125" customWidth="1"/>
+    <col min="2" max="3" width="25.58203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="60.58203125" customWidth="1"/>
+    <col min="6" max="6" width="53.08203125" customWidth="1"/>
+    <col min="7" max="9" width="10.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+    </row>
+    <row r="3" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="44"/>
+      <c r="B3" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+    </row>
+    <row r="4" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="44"/>
+      <c r="B4" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+    </row>
+    <row r="5" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="44"/>
+      <c r="B5" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+    </row>
+    <row r="6" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="44"/>
+      <c r="B6" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="45"/>
+      <c r="B7" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.58203125" customWidth="1"/>
+    <col min="2" max="2" width="20.58203125" customWidth="1"/>
+    <col min="3" max="3" width="16.58203125" customWidth="1"/>
+    <col min="4" max="4" width="20.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.5" customWidth="1"/>
-    <col min="6" max="6" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="16.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2198,8 +2905,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="31" t="s">
         <v>104</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2219,8 +2926,8 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
+    <row r="3" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="32"/>
       <c r="B3" s="8" t="s">
         <v>104</v>
       </c>
@@ -2238,8 +2945,8 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="33" t="s">
         <v>111</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -2259,8 +2966,8 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="33"/>
       <c r="B5" s="8" t="s">
         <v>115</v>
       </c>
@@ -2278,8 +2985,8 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="33"/>
       <c r="B6" s="8" t="s">
         <v>117</v>
       </c>
@@ -2297,8 +3004,8 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="33"/>
       <c r="B7" s="7" t="s">
         <v>120</v>
       </c>
@@ -2316,8 +3023,8 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
+    <row r="8" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="33"/>
       <c r="B8" s="8" t="s">
         <v>126</v>
       </c>
@@ -2335,8 +3042,8 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="33"/>
       <c r="B9" s="7" t="s">
         <v>145</v>
       </c>
@@ -2356,8 +3063,8 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="33"/>
       <c r="B10" s="7" t="s">
         <v>149</v>
       </c>
@@ -2375,8 +3082,8 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="33"/>
       <c r="B11" s="7" t="s">
         <v>151</v>
       </c>
@@ -2407,26 +3114,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="21.58203125" customWidth="1"/>
     <col min="2" max="2" width="25.25" customWidth="1"/>
-    <col min="3" max="4" width="21.625" customWidth="1"/>
+    <col min="3" max="4" width="21.58203125" customWidth="1"/>
     <col min="5" max="5" width="55.75" customWidth="1"/>
-    <col min="6" max="6" width="38.875" customWidth="1"/>
-    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.83203125" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2455,8 +3162,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="27" t="s">
         <v>127</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2478,8 +3185,8 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+    <row r="3" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="27"/>
       <c r="B3" s="7" t="s">
         <v>131</v>
       </c>
@@ -2499,8 +3206,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="27"/>
       <c r="B4" s="7" t="s">
         <v>136</v>
       </c>
@@ -2518,8 +3225,8 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="27"/>
       <c r="B5" s="7" t="s">
         <v>138</v>
       </c>
@@ -2537,8 +3244,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="27"/>
       <c r="B6" s="7" t="s">
         <v>140</v>
       </c>
@@ -2556,8 +3263,8 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="27"/>
       <c r="B7" s="7" t="s">
         <v>156</v>
       </c>
@@ -2577,7 +3284,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -2594,24 +3301,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.625" customWidth="1"/>
-    <col min="2" max="3" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="60.625" customWidth="1"/>
-    <col min="6" max="6" width="30.625" customWidth="1"/>
-    <col min="7" max="9" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="20.58203125" customWidth="1"/>
+    <col min="2" max="3" width="25.58203125" customWidth="1"/>
+    <col min="4" max="4" width="30.58203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="60.58203125" customWidth="1"/>
+    <col min="6" max="6" width="30.58203125" customWidth="1"/>
+    <col min="7" max="9" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
         <v>162</v>
       </c>
@@ -2640,8 +3347,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="34" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -2663,8 +3370,8 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="35"/>
       <c r="B3" s="14" t="s">
         <v>165</v>
       </c>
@@ -2684,8 +3391,8 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="35"/>
       <c r="B4" s="12" t="s">
         <v>165</v>
       </c>
@@ -2705,8 +3412,8 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="35"/>
       <c r="B5" s="14" t="s">
         <v>165</v>
       </c>
@@ -2726,8 +3433,8 @@
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="35"/>
       <c r="B6" s="12" t="s">
         <v>165</v>
       </c>
@@ -2747,8 +3454,8 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="35"/>
       <c r="B7" s="14" t="s">
         <v>165</v>
       </c>
@@ -2768,8 +3475,8 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="36"/>
       <c r="B8" s="12" t="s">
         <v>165</v>
       </c>
@@ -2799,267 +3506,267 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
-    <col min="5" max="5" width="79.625" customWidth="1"/>
+    <col min="4" max="4" width="23.08203125" customWidth="1"/>
+    <col min="5" max="5" width="79.58203125" customWidth="1"/>
     <col min="6" max="6" width="24.25" customWidth="1"/>
     <col min="9" max="9" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="38"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="39" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="38"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="38"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="39" t="s">
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="38"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="39" t="s">
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="38"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="39" t="s">
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="38"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="38"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37" t="s">
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="38"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37" t="s">
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="38"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="39"/>
       <c r="B12" s="42"/>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:I1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B2:B12"/>
@@ -3067,4 +3774,1212 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8668A810-2921-4777-8DD0-3E5D9FEB4C7E}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.58203125" customWidth="1"/>
+    <col min="2" max="3" width="25.58203125" customWidth="1"/>
+    <col min="4" max="4" width="30.58203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="60.58203125" customWidth="1"/>
+    <col min="6" max="6" width="30.58203125" customWidth="1"/>
+    <col min="7" max="9" width="10.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>312</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+    </row>
+    <row r="3" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="35"/>
+      <c r="B3" s="52" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+    </row>
+    <row r="4" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="35"/>
+      <c r="B4" s="52" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>314</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>316</v>
+      </c>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+    </row>
+    <row r="5" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="35"/>
+      <c r="B5" s="52" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+    </row>
+    <row r="6" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="35"/>
+      <c r="B6" s="52" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>319</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+    </row>
+    <row r="7" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="35"/>
+      <c r="B7" s="52" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+    </row>
+    <row r="8" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="36"/>
+      <c r="B8" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A8"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC9FCA-3F28-422C-BC32-73E6922B9482}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.58203125" customWidth="1"/>
+    <col min="2" max="3" width="25.58203125" customWidth="1"/>
+    <col min="4" max="4" width="30.58203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="60.58203125" customWidth="1"/>
+    <col min="6" max="6" width="30.58203125" customWidth="1"/>
+    <col min="7" max="9" width="10.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+    </row>
+    <row r="3" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="50"/>
+      <c r="B3" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+    </row>
+    <row r="4" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="50"/>
+      <c r="B4" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+    </row>
+    <row r="5" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="50"/>
+      <c r="B5" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+    </row>
+    <row r="6" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="50"/>
+      <c r="B6" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+    </row>
+    <row r="7" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="50"/>
+      <c r="B7" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+    </row>
+    <row r="8" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="50"/>
+      <c r="B8" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+    </row>
+    <row r="9" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="50"/>
+      <c r="B9" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+    </row>
+    <row r="10" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="50"/>
+      <c r="B10" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+    </row>
+    <row r="11" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="50"/>
+      <c r="B11" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+    </row>
+    <row r="12" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="50"/>
+      <c r="B12" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+    </row>
+    <row r="13" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="51"/>
+      <c r="B13" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A13"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5800A1BC-3E88-40EA-950A-0BC983E0E57A}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.58203125" customWidth="1"/>
+    <col min="2" max="3" width="25.58203125" customWidth="1"/>
+    <col min="4" max="4" width="26.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="60.58203125" customWidth="1"/>
+    <col min="6" max="6" width="30.58203125" customWidth="1"/>
+    <col min="7" max="9" width="10.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+    </row>
+    <row r="3" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="44"/>
+      <c r="B3" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+    </row>
+    <row r="4" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="44"/>
+      <c r="B4" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+    </row>
+    <row r="5" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="44"/>
+      <c r="B5" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+    </row>
+    <row r="6" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="44"/>
+      <c r="B6" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+    </row>
+    <row r="7" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="44"/>
+      <c r="B7" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+    </row>
+    <row r="8" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="44"/>
+      <c r="B8" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+    </row>
+    <row r="9" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="44"/>
+      <c r="B9" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+    </row>
+    <row r="10" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="44"/>
+      <c r="B10" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+    </row>
+    <row r="11" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="44"/>
+      <c r="B11" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+    </row>
+    <row r="12" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="44"/>
+      <c r="B12" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>326</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+    </row>
+    <row r="13" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="44"/>
+      <c r="B13" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>327</v>
+      </c>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+    </row>
+    <row r="14" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="44"/>
+      <c r="B14" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+    </row>
+    <row r="15" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="44"/>
+      <c r="B15" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+    </row>
+    <row r="16" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="44"/>
+      <c r="B16" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+    </row>
+    <row r="17" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="44"/>
+      <c r="B17" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+    </row>
+    <row r="18" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="44"/>
+      <c r="B18" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+    </row>
+    <row r="19" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="44"/>
+      <c r="B19" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+    </row>
+    <row r="20" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="44"/>
+      <c r="B20" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+    </row>
+    <row r="21" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="44"/>
+      <c r="B21" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+    </row>
+    <row r="22" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="44"/>
+      <c r="B22" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+    </row>
+    <row r="23" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="44"/>
+      <c r="B23" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+    </row>
+    <row r="24" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="44"/>
+      <c r="B24" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="45"/>
+      <c r="B25" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A25"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A689B20E-B05B-42A6-9FC6-D5EF89F03BD3}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.58203125" customWidth="1"/>
+    <col min="2" max="3" width="25.58203125" customWidth="1"/>
+    <col min="4" max="4" width="30.58203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="60.58203125" customWidth="1"/>
+    <col min="6" max="6" width="30.58203125" customWidth="1"/>
+    <col min="7" max="9" width="10.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+    </row>
+    <row r="3" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="44"/>
+      <c r="B3" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+    </row>
+    <row r="4" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="44"/>
+      <c r="B4" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+    </row>
+    <row r="5" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="44"/>
+      <c r="B5" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+    </row>
+    <row r="6" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="44"/>
+      <c r="B6" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+    </row>
+    <row r="7" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="44"/>
+      <c r="B7" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="45"/>
+      <c r="B8" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A8"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/기능명세서.xlsx
+++ b/기능명세서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dw\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dw\Documents\MyProject\TheBoxer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="인덱스 및 로그인" sheetId="6" r:id="rId1"/>
@@ -1023,10 +1023,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>추천 장소 수정  (관리자 권한)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자 추천 장소 리스트에서 삭제  (관리자 권한)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1463,6 +1459,10 @@
   </si>
   <si>
     <t>팔로워 유저 검색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 시, 기존 장소명, 설명, 주소, 카테고리를 대입하고 거기에서 추천 장소 수정  (관리자 권한)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2212,19 +2212,19 @@
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1">
       <c r="A2" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>266</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>267</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>246</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>268</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>269</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -2238,10 +2238,10 @@
         <v>246</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -2255,10 +2255,10 @@
         <v>246</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -2272,10 +2272,10 @@
         <v>246</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -2289,10 +2289,10 @@
         <v>246</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -2303,13 +2303,13 @@
       <c r="A7" s="29"/>
       <c r="B7" s="33"/>
       <c r="C7" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>327</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -2320,13 +2320,13 @@
       <c r="A8" s="29"/>
       <c r="B8" s="33"/>
       <c r="C8" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>328</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>329</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -2340,10 +2340,10 @@
         <v>246</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -2354,13 +2354,13 @@
       <c r="A10" s="29"/>
       <c r="B10" s="33"/>
       <c r="C10" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -2371,13 +2371,13 @@
       <c r="A11" s="29"/>
       <c r="B11" s="33"/>
       <c r="C11" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -2388,13 +2388,13 @@
       <c r="A12" s="29"/>
       <c r="B12" s="33"/>
       <c r="C12" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -2405,13 +2405,13 @@
       <c r="A13" s="29"/>
       <c r="B13" s="33"/>
       <c r="C13" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>352</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -2422,13 +2422,13 @@
       <c r="A14" s="29"/>
       <c r="B14" s="33"/>
       <c r="C14" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>279</v>
-      </c>
       <c r="E14" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -2439,13 +2439,13 @@
       <c r="A15" s="29"/>
       <c r="B15" s="34"/>
       <c r="C15" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>280</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>281</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2466,7 +2466,7 @@
         <v>182</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>150</v>
@@ -2487,7 +2487,7 @@
         <v>170</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>150</v>
@@ -2508,7 +2508,7 @@
         <v>233</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>234</v>
@@ -2529,7 +2529,7 @@
         <v>235</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
@@ -2548,7 +2548,7 @@
         <v>236</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
@@ -2567,7 +2567,7 @@
         <v>237</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
@@ -2576,19 +2576,19 @@
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1">
       <c r="A22" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="B22" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="C22" s="6" t="s">
         <v>336</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>337</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>195</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -2599,13 +2599,13 @@
       <c r="A23" s="31"/>
       <c r="B23" s="30"/>
       <c r="C23" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>338</v>
-      </c>
       <c r="E23" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -2855,13 +2855,13 @@
         <v>163</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D2" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>285</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>286</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
@@ -2872,7 +2872,7 @@
       <c r="A3" s="39"/>
       <c r="B3" s="36"/>
       <c r="C3" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>182</v>
@@ -2891,7 +2891,7 @@
       <c r="A4" s="39"/>
       <c r="B4" s="36"/>
       <c r="C4" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>170</v>
@@ -2910,7 +2910,7 @@
       <c r="A5" s="39"/>
       <c r="B5" s="36"/>
       <c r="C5" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>172</v>
@@ -2929,7 +2929,7 @@
       <c r="A6" s="39"/>
       <c r="B6" s="36"/>
       <c r="C6" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>174</v>
@@ -2948,13 +2948,13 @@
       <c r="A7" s="39"/>
       <c r="B7" s="36"/>
       <c r="C7" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="E7" s="23" t="s">
         <v>283</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>284</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -2965,7 +2965,7 @@
       <c r="A8" s="39"/>
       <c r="B8" s="36"/>
       <c r="C8" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>164</v>
@@ -2984,7 +2984,7 @@
       <c r="A9" s="39"/>
       <c r="B9" s="36"/>
       <c r="C9" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>167</v>
@@ -3003,7 +3003,7 @@
       <c r="A10" s="39"/>
       <c r="B10" s="36"/>
       <c r="C10" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>177</v>
@@ -3022,13 +3022,13 @@
       <c r="A11" s="39"/>
       <c r="B11" s="36"/>
       <c r="C11" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>186</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>169</v>
@@ -3041,7 +3041,7 @@
       <c r="A12" s="39"/>
       <c r="B12" s="36"/>
       <c r="C12" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>179</v>
@@ -3060,13 +3060,13 @@
       <c r="A13" s="39"/>
       <c r="B13" s="36"/>
       <c r="C13" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>181</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>169</v>
@@ -3079,7 +3079,7 @@
       <c r="A14" s="40"/>
       <c r="B14" s="37"/>
       <c r="C14" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>185</v>
@@ -3160,7 +3160,7 @@
         <v>221</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>15</v>
@@ -3183,10 +3183,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>150</v>
@@ -3202,10 +3202,10 @@
         <v>15</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>150</v>
@@ -3218,13 +3218,13 @@
       <c r="A5" s="42"/>
       <c r="B5" s="44"/>
       <c r="C5" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>293</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -3235,13 +3235,13 @@
       <c r="A6" s="42"/>
       <c r="B6" s="44"/>
       <c r="C6" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -3252,7 +3252,7 @@
       <c r="A7" s="42"/>
       <c r="B7" s="44"/>
       <c r="C7" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>226</v>
@@ -3304,7 +3304,7 @@
     <row r="10" spans="1:9" ht="35.1" customHeight="1">
       <c r="A10" s="42"/>
       <c r="B10" s="43" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>15</v>
@@ -3327,10 +3327,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>150</v>
@@ -3346,10 +3346,10 @@
         <v>130</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>150</v>
@@ -3362,13 +3362,13 @@
       <c r="A13" s="42"/>
       <c r="B13" s="44"/>
       <c r="C13" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>293</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -3379,13 +3379,13 @@
       <c r="A14" s="42"/>
       <c r="B14" s="44"/>
       <c r="C14" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -3396,13 +3396,13 @@
       <c r="A15" s="42"/>
       <c r="B15" s="44"/>
       <c r="C15" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>226</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -3535,7 +3535,7 @@
         <v>151</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>152</v>
@@ -3577,10 +3577,10 @@
         <v>151</v>
       </c>
       <c r="D5" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>301</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>302</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>156</v>
@@ -3619,10 +3619,10 @@
         <v>147</v>
       </c>
       <c r="D7" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>303</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>304</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>159</v>
@@ -3667,7 +3667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -4046,7 +4046,7 @@
         <v>48</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="2"/>
@@ -4134,10 +4134,10 @@
         <v>243</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="2"/>
@@ -4154,7 +4154,7 @@
         <v>57</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="2"/>
@@ -4204,10 +4204,10 @@
         <v>25</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="2"/>
@@ -4218,13 +4218,13 @@
       <c r="A30" s="49"/>
       <c r="B30" s="51"/>
       <c r="C30" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>360</v>
-      </c>
       <c r="E30" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="2"/>
@@ -4330,7 +4330,7 @@
         <v>64</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="2"/>
@@ -4344,10 +4344,10 @@
         <v>15</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="2"/>
@@ -4414,10 +4414,10 @@
         <v>15</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="2"/>
@@ -4487,8 +4487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:G18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4629,7 +4629,7 @@
     <row r="7" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
       <c r="A7" s="31"/>
       <c r="B7" s="50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>102</v>
@@ -4652,10 +4652,10 @@
         <v>102</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -4712,7 +4712,7 @@
         <v>134</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>256</v>
+        <v>364</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="2"/>
@@ -4731,7 +4731,7 @@
         <v>136</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>137</v>
@@ -4817,7 +4817,7 @@
         <v>210</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -4861,16 +4861,16 @@
     <row r="5" spans="1:9" ht="35.1" customHeight="1">
       <c r="A5" s="60"/>
       <c r="B5" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>361</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>362</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -4880,16 +4880,16 @@
     <row r="6" spans="1:9" ht="35.1" customHeight="1">
       <c r="A6" s="60"/>
       <c r="B6" s="43" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>243</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -4903,10 +4903,10 @@
         <v>246</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -4920,10 +4920,10 @@
         <v>15</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -4937,10 +4937,10 @@
         <v>25</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -4954,10 +4954,10 @@
         <v>15</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>311</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>312</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>238</v>
@@ -4973,7 +4973,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>215</v>
@@ -4990,10 +4990,10 @@
         <v>15</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>314</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>315</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -5007,10 +5007,10 @@
         <v>15</v>
       </c>
       <c r="D13" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>331</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>332</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -5024,10 +5024,10 @@
         <v>25</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -5058,7 +5058,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>217</v>
@@ -5078,7 +5078,7 @@
         <v>218</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -5095,7 +5095,7 @@
         <v>219</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -5114,7 +5114,7 @@
         <v>206</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -5261,10 +5261,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>333</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>334</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>

--- a/기능명세서.xlsx
+++ b/기능명세서.xlsx
@@ -20,8 +20,8 @@
     <sheet name="추천 장소 및 이벤트" sheetId="2" r:id="rId6"/>
     <sheet name="피드" sheetId="8" r:id="rId7"/>
     <sheet name="피드 등록" sheetId="9" r:id="rId8"/>
-    <sheet name="관리자" sheetId="3" r:id="rId9"/>
-    <sheet name="이벤트" sheetId="10" r:id="rId10"/>
+    <sheet name="이벤트" sheetId="10" r:id="rId9"/>
+    <sheet name="관리자" sheetId="3" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">마이페이지!$A$1:$I$43</definedName>
@@ -2167,7 +2167,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2627,170 +2627,207 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="20.625" customWidth="1"/>
-    <col min="2" max="3" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="60.625" customWidth="1"/>
-    <col min="6" max="6" width="53.125" customWidth="1"/>
-    <col min="7" max="9" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="55.75" customWidth="1"/>
+    <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33">
-      <c r="A1" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="35.1" customHeight="1">
-      <c r="A2" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" ht="35.1" customHeight="1">
-      <c r="A3" s="63"/>
-      <c r="B3" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" ht="35.1" customHeight="1">
-      <c r="A4" s="63"/>
-      <c r="B4" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" ht="35.1" customHeight="1">
-      <c r="A5" s="63"/>
-      <c r="B5" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" ht="35.1" customHeight="1">
-      <c r="A6" s="63"/>
-      <c r="B6" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" ht="35.1" customHeight="1">
-      <c r="A7" s="64"/>
-      <c r="B7" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A3" s="49"/>
+      <c r="B3" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="49"/>
+      <c r="B4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="49"/>
+      <c r="B5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="49"/>
+      <c r="B6" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A7" s="49"/>
+      <c r="B7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A8" s="49"/>
+      <c r="B8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A2:A8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3667,8 +3704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5136,8 +5173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5302,207 +5339,170 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
-    <col min="5" max="5" width="55.75" customWidth="1"/>
-    <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
+    <col min="6" max="6" width="53.125" customWidth="1"/>
+    <col min="7" max="9" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:9" ht="33">
+      <c r="A1" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="49"/>
-      <c r="B3" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="49"/>
-      <c r="B4" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="49"/>
-      <c r="B5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="49"/>
-      <c r="B8" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+    <row r="2" spans="1:9" ht="35.1" customHeight="1">
+      <c r="A2" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" ht="35.1" customHeight="1">
+      <c r="A3" s="63"/>
+      <c r="B3" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" ht="35.1" customHeight="1">
+      <c r="A4" s="63"/>
+      <c r="B4" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" ht="35.1" customHeight="1">
+      <c r="A5" s="63"/>
+      <c r="B5" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" ht="35.1" customHeight="1">
+      <c r="A6" s="63"/>
+      <c r="B6" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" ht="35.1" customHeight="1">
+      <c r="A7" s="64"/>
+      <c r="B7" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A2:A7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기능명세서.xlsx
+++ b/기능명세서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="인덱스 및 로그인" sheetId="6" r:id="rId1"/>
@@ -19,11 +19,11 @@
     <sheet name="마이페이지" sheetId="1" r:id="rId5"/>
     <sheet name="추천 장소 및 이벤트" sheetId="2" r:id="rId6"/>
     <sheet name="피드" sheetId="8" r:id="rId7"/>
-    <sheet name="이벤트" sheetId="10" r:id="rId8"/>
-    <sheet name="관리자" sheetId="3" r:id="rId9"/>
+    <sheet name="관리자" sheetId="3" r:id="rId8"/>
+    <sheet name="이벤트" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">마이페이지!$A$1:$G$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">마이페이지!$A$1:$G$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">회원가입!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="429">
   <si>
     <t>화면</t>
   </si>
@@ -1220,10 +1220,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>★</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>완료</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1249,10 +1245,6 @@
   </si>
   <si>
     <t>다음 버튼 클릭 시, 정보 입력 페이지로 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>▲</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1425,10 +1417,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>▲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>강준우/오정재</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1595,10 +1583,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>▲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>장소명, 설명, 주소,이미지, 카테고리 입력 후 등록 
 (관리자 권한)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1718,10 +1702,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>팝업 슬라이드 "오늘 하루 보지 않기" 버튼 클릭 시 , 재로그인해도 
 보이지 않음</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1740,6 +1720,26 @@
   </si>
   <si>
     <t>댓글 등록 시 , 밑에 댓글 배치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 피드 3,5개씩 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남재우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 API를 통해 기념일 이전에 미리 해당 날씨에 대한 알람 보내기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남재우</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2041,6 +2041,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2154,9 +2157,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2446,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2485,10 +2485,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>206</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2508,8 +2508,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="6" t="s">
         <v>193</v>
       </c>
@@ -2527,8 +2527,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="6" t="s">
         <v>193</v>
       </c>
@@ -2546,8 +2546,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="6" t="s">
         <v>193</v>
       </c>
@@ -2565,8 +2565,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="6" t="s">
         <v>193</v>
       </c>
@@ -2584,8 +2584,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="6" t="s">
         <v>246</v>
       </c>
@@ -2603,8 +2603,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="6" t="s">
         <v>246</v>
       </c>
@@ -2622,8 +2622,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="6" t="s">
         <v>193</v>
       </c>
@@ -2641,8 +2641,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="6" t="s">
         <v>262</v>
       </c>
@@ -2660,8 +2660,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="6" t="s">
         <v>262</v>
       </c>
@@ -2679,8 +2679,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="6" t="s">
         <v>262</v>
       </c>
@@ -2698,8 +2698,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="20" t="s">
         <v>13</v>
       </c>
@@ -2717,8 +2717,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="6" t="s">
         <v>262</v>
       </c>
@@ -2736,8 +2736,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="6" t="s">
         <v>215</v>
       </c>
@@ -2747,14 +2747,16 @@
       <c r="E15" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="G15" s="6"/>
+      <c r="F15" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="6" t="s">
         <v>215</v>
       </c>
@@ -2762,15 +2764,17 @@
         <v>217</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="G16" s="6"/>
+        <v>419</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="26" t="s">
         <v>181</v>
       </c>
       <c r="B17" s="14" t="s">
@@ -2793,7 +2797,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1">
-      <c r="A18" s="25"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="14" t="s">
         <v>182</v>
       </c>
@@ -2814,7 +2818,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1">
-      <c r="A19" s="25"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="14" t="s">
         <v>182</v>
       </c>
@@ -2835,7 +2839,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A20" s="25"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="14" t="s">
         <v>181</v>
       </c>
@@ -2846,7 +2850,7 @@
         <v>184</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>285</v>
@@ -2856,7 +2860,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A21" s="25"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="14" t="s">
         <v>181</v>
       </c>
@@ -2867,7 +2871,7 @@
         <v>185</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>286</v>
@@ -2877,7 +2881,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A22" s="25"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="14" t="s">
         <v>181</v>
       </c>
@@ -2888,7 +2892,7 @@
         <v>186</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>286</v>
@@ -2898,10 +2902,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="29" t="s">
         <v>257</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -2921,8 +2925,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="6" t="s">
         <v>258</v>
       </c>
@@ -2957,7 +2961,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G10" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2992,14 +2996,14 @@
         <v>7</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>130</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -3012,15 +3016,15 @@
         <v>220</v>
       </c>
       <c r="F2" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>302</v>
-      </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="34"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="19" t="s">
         <v>218</v>
       </c>
@@ -3028,37 +3032,37 @@
         <v>142</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>283</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1">
-      <c r="A4" s="37"/>
-      <c r="B4" s="34"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="F4" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="G4" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>328</v>
-      </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
-      <c r="A5" s="37"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="19" t="s">
         <v>218</v>
       </c>
@@ -3066,18 +3070,18 @@
         <v>133</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>293</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1">
-      <c r="A6" s="37"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="19" t="s">
         <v>218</v>
       </c>
@@ -3091,12 +3095,12 @@
         <v>283</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="37"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="19" t="s">
         <v>218</v>
       </c>
@@ -3114,35 +3118,35 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>303</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>292</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1">
-      <c r="A9" s="37"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="19" t="s">
         <v>218</v>
       </c>
       <c r="D9" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>306</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>307</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>292</v>
@@ -3152,8 +3156,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="19" t="s">
         <v>218</v>
       </c>
@@ -3161,16 +3165,18 @@
         <v>131</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="F10" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="G10" s="17"/>
+      <c r="F10" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="A11" s="37"/>
-      <c r="B11" s="34"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="19" t="s">
         <v>218</v>
       </c>
@@ -3178,16 +3184,18 @@
         <v>132</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="G11" s="18"/>
+        <v>307</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="34"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="19" t="s">
         <v>218</v>
       </c>
@@ -3195,18 +3203,18 @@
         <v>138</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="34"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="19" t="s">
         <v>218</v>
       </c>
@@ -3220,12 +3228,12 @@
         <v>283</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="34"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="19" t="s">
         <v>218</v>
       </c>
@@ -3239,12 +3247,12 @@
         <v>283</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="19" t="s">
         <v>218</v>
       </c>
@@ -3252,64 +3260,64 @@
         <v>141</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>283</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1">
-      <c r="A16" s="37"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>314</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>316</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>283</v>
       </c>
       <c r="G16" s="19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1">
+      <c r="A17" s="38"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="19" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="19" t="s">
-        <v>317</v>
-      </c>
       <c r="D17" s="19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>283</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1">
-      <c r="A18" s="38"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="19" t="s">
         <v>218</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>283</v>
@@ -3369,14 +3377,14 @@
         <v>7</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>227</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3389,15 +3397,15 @@
         <v>174</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="42"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
@@ -3408,15 +3416,15 @@
         <v>222</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A4" s="40"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
@@ -3427,15 +3435,15 @@
         <v>223</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="9" t="s">
         <v>224</v>
       </c>
@@ -3443,18 +3451,18 @@
         <v>225</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A6" s="40"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="9" t="s">
         <v>226</v>
       </c>
@@ -3462,18 +3470,18 @@
         <v>177</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A7" s="40"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="9" t="s">
         <v>23</v>
       </c>
@@ -3481,18 +3489,18 @@
         <v>178</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="G7" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="8" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
@@ -3503,15 +3511,15 @@
         <v>180</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="41" t="s">
+      <c r="A9" s="41"/>
+      <c r="B9" s="42" t="s">
         <v>229</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -3524,15 +3532,15 @@
         <v>176</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
@@ -3543,15 +3551,15 @@
         <v>222</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A11" s="40"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="9" t="s">
         <v>108</v>
       </c>
@@ -3559,18 +3567,18 @@
         <v>228</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A12" s="40"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="9" t="s">
         <v>226</v>
       </c>
@@ -3578,18 +3586,18 @@
         <v>177</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A13" s="40"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="9" t="s">
         <v>23</v>
       </c>
@@ -3597,18 +3605,18 @@
         <v>178</v>
       </c>
       <c r="E13" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="G13" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="F13" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="14" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A14" s="40"/>
-      <c r="B14" s="43"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
@@ -3619,10 +3627,10 @@
         <v>180</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -3673,14 +3681,14 @@
         <v>7</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>121</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3690,18 +3698,18 @@
         <v>123</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="42"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="15" t="s">
         <v>124</v>
       </c>
@@ -3709,37 +3717,37 @@
         <v>230</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="G4" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>343</v>
-      </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="9" t="s">
         <v>122</v>
       </c>
@@ -3750,15 +3758,15 @@
         <v>126</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="15" t="s">
         <v>122</v>
       </c>
@@ -3769,15 +3777,15 @@
         <v>232</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="46"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="9" t="s">
         <v>122</v>
       </c>
@@ -3788,10 +3796,10 @@
         <v>128</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1"/>
@@ -3808,10 +3816,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+      <selection activeCell="G4" sqref="E4:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3845,14 +3853,14 @@
         <v>7</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3862,18 +3870,18 @@
         <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>351</v>
+        <v>283</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="7" t="s">
         <v>71</v>
       </c>
@@ -3881,17 +3889,17 @@
         <v>74</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>351</v>
+        <v>283</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1">
-      <c r="A4" s="47"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
@@ -3905,15 +3913,15 @@
         <v>81</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -3926,439 +3934,439 @@
         <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1">
+      <c r="A7" s="48"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="7" t="s">
+      <c r="F7" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1">
+      <c r="A8" s="48"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1">
-      <c r="A9" s="47"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="50"/>
       <c r="C9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1">
+      <c r="A10" s="48"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F10" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1">
+      <c r="A11" s="48"/>
+      <c r="B11" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1">
+      <c r="A12" s="48"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="A11" s="47"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1">
-      <c r="A12" s="47"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="7" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1">
+      <c r="A13" s="48"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="47"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1">
-      <c r="A14" s="47"/>
-      <c r="B14" s="49"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1">
-      <c r="A15" s="47"/>
-      <c r="B15" s="49"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="G15" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1">
+      <c r="A17" s="48"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1">
-      <c r="A17" s="47"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>360</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1">
-      <c r="A18" s="47"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="50"/>
       <c r="C18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1">
+      <c r="A19" s="48"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="F19" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1">
+      <c r="A20" s="48"/>
+      <c r="B20" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1">
+      <c r="A21" s="48"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1">
-      <c r="A20" s="47"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1">
-      <c r="A21" s="47"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="7" t="s">
+      <c r="F21" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1">
+      <c r="A22" s="48"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1">
-      <c r="A22" s="47"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>273</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1">
-      <c r="A23" s="47"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="50"/>
       <c r="C23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1">
+      <c r="A24" s="48"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1">
-      <c r="A24" s="47"/>
-      <c r="B24" s="48" t="s">
+      <c r="F24" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1">
+      <c r="A25" s="48"/>
+      <c r="B25" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1">
-      <c r="A25" s="47"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1">
-      <c r="A26" s="47"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="50"/>
       <c r="C26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1">
+      <c r="A27" s="48"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1">
-      <c r="A27" s="47"/>
-      <c r="B27" s="48" t="s">
+      <c r="E27" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1">
+      <c r="A28" s="48"/>
+      <c r="B28" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1">
-      <c r="A28" s="47"/>
-      <c r="B28" s="49"/>
       <c r="C28" s="7" t="s">
         <v>190</v>
       </c>
@@ -4366,357 +4374,395 @@
         <v>191</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1">
+      <c r="A29" s="48"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1">
-      <c r="A29" s="47"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="7" t="s">
+      <c r="F29" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="A30" s="48"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1">
-      <c r="A30" s="47"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>277</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>367</v>
+        <v>283</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1">
-      <c r="A31" s="47"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="50"/>
       <c r="C31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1">
+      <c r="A32" s="48"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="A33" s="48"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F33" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1">
+      <c r="A34" s="48"/>
+      <c r="B34" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" customHeight="1">
+      <c r="A35" s="48"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1">
+      <c r="A36" s="48"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" customHeight="1">
+      <c r="A37" s="48"/>
+      <c r="B37" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" customHeight="1">
+      <c r="A38" s="48"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1">
-      <c r="A32" s="47"/>
-      <c r="B32" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G32" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1">
-      <c r="A33" s="47"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1">
-      <c r="A34" s="47"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1">
-      <c r="A35" s="47"/>
-      <c r="B35" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1">
-      <c r="A36" s="47"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="7" t="s">
+      <c r="G38" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1">
-      <c r="A37" s="47"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1">
-      <c r="A38" s="47"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>373</v>
-      </c>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1">
-      <c r="A39" s="47"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="50"/>
       <c r="C39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" customHeight="1">
+      <c r="A40" s="48"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" customHeight="1">
+      <c r="A41" s="48"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D41" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1">
-      <c r="A40" s="47"/>
-      <c r="B40" s="48" t="s">
+      <c r="E41" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" customHeight="1">
+      <c r="A42" s="48"/>
+      <c r="B42" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D42" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E42" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1">
-      <c r="A41" s="47"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="7" t="s">
+      <c r="F42" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" customHeight="1">
+      <c r="A43" s="48"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1">
-      <c r="A42" s="47"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1">
-      <c r="A43" s="47"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>379</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1">
-      <c r="A44" s="47"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="50"/>
       <c r="C44" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" customHeight="1">
+      <c r="A45" s="48"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" customHeight="1">
+      <c r="A46" s="48"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E46" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1">
-      <c r="A45" s="47"/>
-      <c r="B45" s="3" t="s">
+      <c r="F46" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" customHeight="1">
+      <c r="A47" s="48"/>
+      <c r="B47" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="G45" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G47" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G45"/>
+  <autoFilter ref="A1:G47"/>
   <mergeCells count="10">
-    <mergeCell ref="A2:A45"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="A2:A47"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="B11:B19"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B28:B33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4727,8 +4773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4762,14 +4808,14 @@
         <v>7</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -4779,18 +4825,18 @@
         <v>84</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="53"/>
-      <c r="B3" s="55"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="7" t="s">
         <v>71</v>
       </c>
@@ -4798,20 +4844,20 @@
         <v>85</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="55" t="s">
         <v>199</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -4821,37 +4867,37 @@
         <v>89</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="30"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="29"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="8" t="s">
+      <c r="F5" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>390</v>
-      </c>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="56"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="8" t="s">
         <v>88</v>
       </c>
@@ -4862,34 +4908,34 @@
         <v>91</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="29"/>
-      <c r="B7" s="55"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="8" t="s">
         <v>71</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="29"/>
-      <c r="B8" s="48" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="49" t="s">
         <v>202</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -4902,15 +4948,15 @@
         <v>93</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A9" s="29"/>
-      <c r="B9" s="49"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="8" t="s">
         <v>88</v>
       </c>
@@ -4921,15 +4967,15 @@
         <v>201</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="8" t="s">
         <v>95</v>
       </c>
@@ -4940,14 +4986,14 @@
         <v>96</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="A11" s="29"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="7" t="s">
         <v>109</v>
       </c>
@@ -4958,15 +5004,17 @@
         <v>110</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G11" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="7" t="s">
         <v>111</v>
       </c>
@@ -4979,13 +5027,15 @@
       <c r="E12" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G12" s="2"/>
+      <c r="F12" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="29"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="7" t="s">
         <v>112</v>
       </c>
@@ -4998,10 +5048,12 @@
       <c r="E13" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G13" s="2"/>
+      <c r="F13" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>387</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5020,7 +5072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F12" sqref="F12:G12"/>
     </sheetView>
   </sheetViews>
@@ -5055,14 +5107,14 @@
         <v>7</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>163</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -5075,15 +5127,15 @@
         <v>233</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A3" s="58"/>
-      <c r="B3" s="42"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
@@ -5094,15 +5146,15 @@
         <v>166</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A4" s="58"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
@@ -5113,14 +5165,14 @@
         <v>168</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A5" s="58"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="9" t="s">
         <v>244</v>
       </c>
@@ -5131,18 +5183,18 @@
         <v>278</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A6" s="58"/>
-      <c r="B6" s="41" t="s">
+      <c r="A6" s="59"/>
+      <c r="B6" s="42" t="s">
         <v>236</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -5152,18 +5204,18 @@
         <v>236</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A7" s="58"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="9" t="s">
         <v>193</v>
       </c>
@@ -5174,15 +5226,15 @@
         <v>251</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
@@ -5193,15 +5245,15 @@
         <v>234</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A9" s="58"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
@@ -5209,18 +5261,18 @@
         <v>237</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A10" s="58"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
@@ -5231,15 +5283,15 @@
         <v>239</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A11" s="58"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="9" t="s">
         <v>23</v>
       </c>
@@ -5250,15 +5302,15 @@
         <v>169</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A12" s="58"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
@@ -5266,18 +5318,18 @@
         <v>241</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A13" s="58"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
@@ -5288,15 +5340,15 @@
         <v>253</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A14" s="58"/>
-      <c r="B14" s="42"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="9" t="s">
         <v>23</v>
       </c>
@@ -5304,18 +5356,18 @@
         <v>243</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A15" s="58"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="9" t="s">
         <v>13</v>
       </c>
@@ -5326,15 +5378,15 @@
         <v>170</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A16" s="58"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="9" t="s">
         <v>13</v>
       </c>
@@ -5345,38 +5397,38 @@
         <v>171</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A17" s="58"/>
-      <c r="B17" s="59" t="s">
+      <c r="A17" s="59"/>
+      <c r="B17" s="60" t="s">
         <v>156</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="22" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>157</v>
@@ -5385,36 +5437,36 @@
         <v>158</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="22" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>159</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="22" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>160</v>
@@ -5423,36 +5475,36 @@
         <v>160</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A21" s="58"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="22" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="22" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>254</v>
@@ -5461,10 +5513,10 @@
         <v>255</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20.25" customHeight="1"/>
@@ -5481,6 +5533,313 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="55.75" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A3" s="65"/>
+      <c r="B3" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="65"/>
+      <c r="B4" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="65"/>
+      <c r="B5" s="49" t="s">
+        <v>405</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="65"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A7" s="65"/>
+      <c r="B7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A8" s="65"/>
+      <c r="B8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A9" s="65"/>
+      <c r="B9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A10" s="65"/>
+      <c r="B10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1">
+      <c r="A11" s="65"/>
+      <c r="B11" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1">
+      <c r="A12" s="65"/>
+      <c r="B12" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1">
+      <c r="A13" s="65"/>
+      <c r="B13" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A2:A13"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -5528,7 +5887,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="35.1" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>144</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -5549,7 +5908,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="35.1" customHeight="1">
-      <c r="A3" s="61"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="9" t="s">
         <v>145</v>
       </c>
@@ -5568,7 +5927,7 @@
       <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="35.1" customHeight="1">
-      <c r="A4" s="61"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="9" t="s">
         <v>145</v>
       </c>
@@ -5587,7 +5946,7 @@
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="35.1" customHeight="1">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
@@ -5606,7 +5965,7 @@
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="35.1" customHeight="1">
-      <c r="A6" s="61"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="11" t="s">
         <v>145</v>
       </c>
@@ -5625,7 +5984,7 @@
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" ht="35.1" customHeight="1">
-      <c r="A7" s="62"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="11" t="s">
         <v>145</v>
       </c>
@@ -5650,303 +6009,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
-    <col min="5" max="5" width="55.75" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="65"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="65"/>
-      <c r="B7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="65"/>
-      <c r="B8" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A9" s="65"/>
-      <c r="B9" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A10" s="65"/>
-      <c r="B10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="A11" s="65"/>
-      <c r="B11" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1">
-      <c r="A12" s="65"/>
-      <c r="B12" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="65"/>
-      <c r="B13" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1"/>
-    <row r="15" spans="1:7" ht="30" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A2:A13"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/기능명세서.xlsx
+++ b/기능명세서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495"/>
   </bookViews>
   <sheets>
     <sheet name="인덱스 및 로그인" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="432">
   <si>
     <t>화면</t>
   </si>
@@ -1740,6 +1740,18 @@
   </si>
   <si>
     <t>남재우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인트로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인트로 에니메이션 화(이미지 둥둥 띄우기)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝업 슬라이드 조회(3장 2초에 한개씩 자동으로 넘겨짐)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1965,7 +1977,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2044,6 +2056,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2149,6 +2164,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2157,12 +2178,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2444,10 +2459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2485,10 +2500,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>206</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2508,8 +2523,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="6" t="s">
         <v>193</v>
       </c>
@@ -2527,8 +2542,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="6" t="s">
         <v>193</v>
       </c>
@@ -2546,8 +2561,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="6" t="s">
         <v>193</v>
       </c>
@@ -2565,8 +2580,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="6" t="s">
         <v>193</v>
       </c>
@@ -2584,8 +2599,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="6" t="s">
         <v>246</v>
       </c>
@@ -2603,8 +2618,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="6" t="s">
         <v>246</v>
       </c>
@@ -2622,35 +2637,35 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="6" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>267</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>268</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>283</v>
@@ -2660,35 +2675,35 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="6" t="s">
         <v>262</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G11" s="20" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="6" t="s">
         <v>262</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>292</v>
@@ -2698,73 +2713,73 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="20" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D14" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E14" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F14" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G14" s="21" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="6" t="s">
+    <row r="15" spans="1:7" ht="30" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>298</v>
-      </c>
-    </row>
     <row r="16" spans="1:7" ht="30" customHeight="1">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="33"/>
       <c r="C16" s="6" t="s">
         <v>215</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>419</v>
+        <v>216</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>431</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>283</v>
@@ -2774,30 +2789,28 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1">
+      <c r="A18" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1">
-      <c r="A18" s="26"/>
       <c r="B18" s="14" t="s">
         <v>182</v>
       </c>
@@ -2805,10 +2818,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>283</v>
@@ -2818,7 +2831,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1">
-      <c r="A19" s="26"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="14" t="s">
         <v>182</v>
       </c>
@@ -2826,41 +2839,41 @@
         <v>13</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>284</v>
+        <v>204</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>283</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A20" s="26"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1">
+      <c r="A20" s="27"/>
       <c r="B20" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>420</v>
+        <v>284</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>288</v>
+        <v>283</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A21" s="26"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="14" t="s">
         <v>181</v>
       </c>
@@ -2868,20 +2881,20 @@
         <v>13</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G21" s="21" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A22" s="26"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="14" t="s">
         <v>181</v>
       </c>
@@ -2889,10 +2902,10 @@
         <v>13</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>286</v>
@@ -2901,55 +2914,76 @@
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1">
-      <c r="A23" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>283</v>
+    <row r="23" spans="1:7" ht="35.1" customHeight="1">
+      <c r="A23" s="27"/>
+      <c r="B23" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>286</v>
       </c>
       <c r="G23" s="21" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1">
-      <c r="A24" s="30"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>257</v>
+      </c>
       <c r="C24" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1">
+      <c r="A25" s="31"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>288</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B2:B17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3000,10 +3034,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>130</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -3023,8 +3057,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1">
-      <c r="A3" s="38"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="19" t="s">
         <v>218</v>
       </c>
@@ -3042,8 +3076,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1">
-      <c r="A4" s="38"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="19" t="s">
         <v>322</v>
       </c>
@@ -3061,8 +3095,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
-      <c r="A5" s="38"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="19" t="s">
         <v>218</v>
       </c>
@@ -3080,8 +3114,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="19" t="s">
         <v>218</v>
       </c>
@@ -3099,8 +3133,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="38"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="19" t="s">
         <v>218</v>
       </c>
@@ -3118,8 +3152,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1">
-      <c r="A8" s="38"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="19" t="s">
         <v>13</v>
       </c>
@@ -3137,8 +3171,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1">
-      <c r="A9" s="38"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="19" t="s">
         <v>218</v>
       </c>
@@ -3156,8 +3190,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1">
-      <c r="A10" s="38"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="19" t="s">
         <v>218</v>
       </c>
@@ -3175,8 +3209,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="A11" s="38"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="19" t="s">
         <v>218</v>
       </c>
@@ -3194,8 +3228,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="19" t="s">
         <v>218</v>
       </c>
@@ -3213,8 +3247,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="38"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="19" t="s">
         <v>218</v>
       </c>
@@ -3232,8 +3266,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="19" t="s">
         <v>218</v>
       </c>
@@ -3251,8 +3285,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1">
-      <c r="A15" s="38"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="19" t="s">
         <v>218</v>
       </c>
@@ -3270,8 +3304,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1">
-      <c r="A16" s="38"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="19" t="s">
         <v>312</v>
       </c>
@@ -3289,8 +3323,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1">
-      <c r="A17" s="38"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="19" t="s">
         <v>315</v>
       </c>
@@ -3308,8 +3342,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1">
-      <c r="A18" s="39"/>
-      <c r="B18" s="36"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="19" t="s">
         <v>218</v>
       </c>
@@ -3381,10 +3415,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>227</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3404,8 +3438,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A3" s="41"/>
-      <c r="B3" s="43"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
@@ -3423,8 +3457,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A4" s="41"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
@@ -3442,8 +3476,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="9" t="s">
         <v>224</v>
       </c>
@@ -3461,8 +3495,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="9" t="s">
         <v>226</v>
       </c>
@@ -3480,8 +3514,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A7" s="41"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="9" t="s">
         <v>23</v>
       </c>
@@ -3499,8 +3533,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A8" s="41"/>
-      <c r="B8" s="44"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
@@ -3518,8 +3552,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="42"/>
+      <c r="B9" s="43" t="s">
         <v>229</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -3539,8 +3573,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
@@ -3558,8 +3592,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A11" s="41"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="9" t="s">
         <v>108</v>
       </c>
@@ -3577,8 +3611,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A12" s="41"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="9" t="s">
         <v>226</v>
       </c>
@@ -3596,8 +3630,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A13" s="41"/>
-      <c r="B13" s="43"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="9" t="s">
         <v>23</v>
       </c>
@@ -3615,8 +3649,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A14" s="41"/>
-      <c r="B14" s="44"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
@@ -3685,10 +3719,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>121</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3708,8 +3742,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="43"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="15" t="s">
         <v>124</v>
       </c>
@@ -3727,8 +3761,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="22" t="s">
         <v>108</v>
       </c>
@@ -3746,8 +3780,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="9" t="s">
         <v>122</v>
       </c>
@@ -3765,8 +3799,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="15" t="s">
         <v>122</v>
       </c>
@@ -3784,8 +3818,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="9" t="s">
         <v>122</v>
       </c>
@@ -3857,10 +3891,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3880,8 +3914,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="7" t="s">
         <v>71</v>
       </c>
@@ -3899,7 +3933,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1">
-      <c r="A4" s="48"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
@@ -3920,8 +3954,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -3941,8 +3975,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="7" t="s">
         <v>32</v>
       </c>
@@ -3960,8 +3994,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
@@ -3979,8 +4013,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
@@ -3998,8 +4032,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="50"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="7" t="s">
         <v>23</v>
       </c>
@@ -4017,8 +4051,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1">
-      <c r="A10" s="48"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="7" t="s">
         <v>23</v>
       </c>
@@ -4036,8 +4070,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49" t="s">
+      <c r="A11" s="49"/>
+      <c r="B11" s="50" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -4057,8 +4091,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="50"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="7" t="s">
         <v>23</v>
       </c>
@@ -4076,8 +4110,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="7" t="s">
         <v>32</v>
       </c>
@@ -4095,8 +4129,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1">
-      <c r="A14" s="48"/>
-      <c r="B14" s="50"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
@@ -4114,8 +4148,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="50"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="7" t="s">
         <v>23</v>
       </c>
@@ -4133,8 +4167,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1">
-      <c r="A16" s="48"/>
-      <c r="B16" s="50"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="7" t="s">
         <v>23</v>
       </c>
@@ -4150,8 +4184,8 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="50"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="7" t="s">
         <v>23</v>
       </c>
@@ -4169,8 +4203,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1">
-      <c r="A18" s="48"/>
-      <c r="B18" s="50"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="7" t="s">
         <v>13</v>
       </c>
@@ -4188,8 +4222,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1">
-      <c r="A19" s="48"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="7" t="s">
         <v>32</v>
       </c>
@@ -4207,8 +4241,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49" t="s">
+      <c r="A20" s="49"/>
+      <c r="B20" s="50" t="s">
         <v>188</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -4228,8 +4262,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1">
-      <c r="A21" s="48"/>
-      <c r="B21" s="50"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="7" t="s">
         <v>13</v>
       </c>
@@ -4247,8 +4281,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1">
-      <c r="A22" s="48"/>
-      <c r="B22" s="50"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="7" t="s">
         <v>19</v>
       </c>
@@ -4266,8 +4300,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1">
-      <c r="A23" s="48"/>
-      <c r="B23" s="50"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="7" t="s">
         <v>23</v>
       </c>
@@ -4285,8 +4319,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1">
-      <c r="A24" s="48"/>
-      <c r="B24" s="51"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="7" t="s">
         <v>13</v>
       </c>
@@ -4304,8 +4338,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1">
-      <c r="A25" s="48"/>
-      <c r="B25" s="49" t="s">
+      <c r="A25" s="49"/>
+      <c r="B25" s="50" t="s">
         <v>189</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -4325,8 +4359,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1">
-      <c r="A26" s="48"/>
-      <c r="B26" s="50"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="7" t="s">
         <v>15</v>
       </c>
@@ -4344,8 +4378,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1">
-      <c r="A27" s="48"/>
-      <c r="B27" s="51"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="7" t="s">
         <v>13</v>
       </c>
@@ -4363,8 +4397,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1">
-      <c r="A28" s="48"/>
-      <c r="B28" s="49" t="s">
+      <c r="A28" s="49"/>
+      <c r="B28" s="50" t="s">
         <v>187</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -4384,8 +4418,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1">
-      <c r="A29" s="48"/>
-      <c r="B29" s="50"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="7" t="s">
         <v>190</v>
       </c>
@@ -4403,8 +4437,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1">
-      <c r="A30" s="48"/>
-      <c r="B30" s="50"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="7" t="s">
         <v>23</v>
       </c>
@@ -4422,8 +4456,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1">
-      <c r="A31" s="48"/>
-      <c r="B31" s="50"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="7" t="s">
         <v>23</v>
       </c>
@@ -4441,8 +4475,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1">
-      <c r="A32" s="48"/>
-      <c r="B32" s="50"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="7" t="s">
         <v>276</v>
       </c>
@@ -4460,8 +4494,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1">
-      <c r="A33" s="48"/>
-      <c r="B33" s="51"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="7" t="s">
         <v>193</v>
       </c>
@@ -4479,8 +4513,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1">
-      <c r="A34" s="48"/>
-      <c r="B34" s="49" t="s">
+      <c r="A34" s="49"/>
+      <c r="B34" s="50" t="s">
         <v>53</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -4500,8 +4534,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1">
-      <c r="A35" s="48"/>
-      <c r="B35" s="50"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="7" t="s">
         <v>32</v>
       </c>
@@ -4519,8 +4553,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1">
-      <c r="A36" s="48"/>
-      <c r="B36" s="51"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="7" t="s">
         <v>17</v>
       </c>
@@ -4538,8 +4572,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1">
-      <c r="A37" s="48"/>
-      <c r="B37" s="49" t="s">
+      <c r="A37" s="49"/>
+      <c r="B37" s="50" t="s">
         <v>57</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -4559,8 +4593,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1">
-      <c r="A38" s="48"/>
-      <c r="B38" s="50"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="7" t="s">
         <v>23</v>
       </c>
@@ -4578,8 +4612,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1">
-      <c r="A39" s="48"/>
-      <c r="B39" s="50"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="7" t="s">
         <v>13</v>
       </c>
@@ -4597,8 +4631,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1">
-      <c r="A40" s="48"/>
-      <c r="B40" s="50"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="7" t="s">
         <v>371</v>
       </c>
@@ -4616,8 +4650,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1">
-      <c r="A41" s="48"/>
-      <c r="B41" s="51"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="52"/>
       <c r="C41" s="7" t="s">
         <v>19</v>
       </c>
@@ -4635,8 +4669,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1">
-      <c r="A42" s="48"/>
-      <c r="B42" s="49" t="s">
+      <c r="A42" s="49"/>
+      <c r="B42" s="50" t="s">
         <v>61</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -4656,8 +4690,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1">
-      <c r="A43" s="48"/>
-      <c r="B43" s="50"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="51"/>
       <c r="C43" s="7" t="s">
         <v>13</v>
       </c>
@@ -4675,8 +4709,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1">
-      <c r="A44" s="48"/>
-      <c r="B44" s="50"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="51"/>
       <c r="C44" s="7" t="s">
         <v>13</v>
       </c>
@@ -4694,8 +4728,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" customHeight="1">
-      <c r="A45" s="48"/>
-      <c r="B45" s="50"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="51"/>
       <c r="C45" s="7" t="s">
         <v>374</v>
       </c>
@@ -4713,8 +4747,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1">
-      <c r="A46" s="48"/>
-      <c r="B46" s="51"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="52"/>
       <c r="C46" s="7" t="s">
         <v>13</v>
       </c>
@@ -4732,7 +4766,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1">
-      <c r="A47" s="48"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="3" t="s">
         <v>67</v>
       </c>
@@ -4773,7 +4807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -4812,10 +4846,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -4835,8 +4869,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="54"/>
-      <c r="B3" s="56"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="7" t="s">
         <v>71</v>
       </c>
@@ -4854,10 +4888,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="56" t="s">
         <v>199</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -4877,8 +4911,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="57"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="8" t="s">
         <v>384</v>
       </c>
@@ -4896,8 +4930,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="57"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="8" t="s">
         <v>88</v>
       </c>
@@ -4915,8 +4949,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="56"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="8" t="s">
         <v>71</v>
       </c>
@@ -4934,8 +4968,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="49" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="50" t="s">
         <v>202</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -4955,8 +4989,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="50"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="8" t="s">
         <v>88</v>
       </c>
@@ -4974,8 +5008,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="8" t="s">
         <v>95</v>
       </c>
@@ -4993,7 +5027,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="7" t="s">
         <v>109</v>
       </c>
@@ -5014,7 +5048,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1">
-      <c r="A12" s="30"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="7" t="s">
         <v>111</v>
       </c>
@@ -5035,7 +5069,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="30"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="7" t="s">
         <v>112</v>
       </c>
@@ -5111,10 +5145,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>163</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -5134,8 +5168,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A3" s="59"/>
-      <c r="B3" s="43"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
@@ -5153,8 +5187,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A4" s="59"/>
-      <c r="B4" s="44"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
@@ -5172,7 +5206,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A5" s="59"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="9" t="s">
         <v>244</v>
       </c>
@@ -5193,8 +5227,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A6" s="59"/>
-      <c r="B6" s="42" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="43" t="s">
         <v>236</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -5214,8 +5248,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A7" s="59"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="9" t="s">
         <v>193</v>
       </c>
@@ -5233,8 +5267,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A8" s="59"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
@@ -5252,8 +5286,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A9" s="59"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
@@ -5271,8 +5305,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A10" s="59"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
@@ -5290,8 +5324,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A11" s="59"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="9" t="s">
         <v>23</v>
       </c>
@@ -5309,8 +5343,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A12" s="59"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
@@ -5328,8 +5362,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A13" s="59"/>
-      <c r="B13" s="43"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
@@ -5347,8 +5381,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A14" s="59"/>
-      <c r="B14" s="43"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="9" t="s">
         <v>23</v>
       </c>
@@ -5366,8 +5400,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A15" s="59"/>
-      <c r="B15" s="43"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="9" t="s">
         <v>13</v>
       </c>
@@ -5385,8 +5419,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A16" s="59"/>
-      <c r="B16" s="43"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="9" t="s">
         <v>13</v>
       </c>
@@ -5404,8 +5438,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60" t="s">
+      <c r="A17" s="60"/>
+      <c r="B17" s="61" t="s">
         <v>156</v>
       </c>
       <c r="C17" s="22" t="s">
@@ -5425,8 +5459,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A18" s="59"/>
-      <c r="B18" s="60"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="22" t="s">
         <v>374</v>
       </c>
@@ -5444,8 +5478,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A19" s="59"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="22" t="s">
         <v>374</v>
       </c>
@@ -5463,8 +5497,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A20" s="59"/>
-      <c r="B20" s="60"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="22" t="s">
         <v>374</v>
       </c>
@@ -5482,8 +5516,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A21" s="59"/>
-      <c r="B21" s="60"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="22" t="s">
         <v>374</v>
       </c>
@@ -5501,8 +5535,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A22" s="59"/>
-      <c r="B22" s="60"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="22" t="s">
         <v>374</v>
       </c>
@@ -5575,7 +5609,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -5598,7 +5632,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="65"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="7" t="s">
         <v>409</v>
       </c>
@@ -5619,7 +5653,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="65"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="7" t="s">
         <v>404</v>
       </c>
@@ -5640,8 +5674,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="49" t="s">
+      <c r="A5" s="63"/>
+      <c r="B5" s="50" t="s">
         <v>405</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -5661,8 +5695,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="65"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="7" t="s">
         <v>374</v>
       </c>
@@ -5680,7 +5714,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="65"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="7" t="s">
         <v>102</v>
       </c>
@@ -5701,7 +5735,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="65"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="7" t="s">
         <v>104</v>
       </c>
@@ -5722,7 +5756,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A9" s="65"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="7" t="s">
         <v>115</v>
       </c>
@@ -5743,7 +5777,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A10" s="65"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="7" t="s">
         <v>197</v>
       </c>
@@ -5764,7 +5798,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="A11" s="65"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="7" t="s">
         <v>413</v>
       </c>
@@ -5785,7 +5819,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1">
-      <c r="A12" s="65"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="7" t="s">
         <v>416</v>
       </c>
@@ -5806,7 +5840,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="65"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="7" t="s">
         <v>418</v>
       </c>
@@ -5887,7 +5921,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="35.1" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="64" t="s">
         <v>144</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -5908,7 +5942,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="35.1" customHeight="1">
-      <c r="A3" s="62"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="9" t="s">
         <v>145</v>
       </c>
@@ -5927,7 +5961,7 @@
       <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="35.1" customHeight="1">
-      <c r="A4" s="62"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="9" t="s">
         <v>145</v>
       </c>
@@ -5946,7 +5980,7 @@
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="35.1" customHeight="1">
-      <c r="A5" s="62"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
@@ -5965,7 +5999,7 @@
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="35.1" customHeight="1">
-      <c r="A6" s="62"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="11" t="s">
         <v>145</v>
       </c>
@@ -5984,7 +6018,7 @@
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" ht="35.1" customHeight="1">
-      <c r="A7" s="63"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="11" t="s">
         <v>145</v>
       </c>
